--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H2">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I2">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J2">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N2">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O2">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P2">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q2">
-        <v>14.85381432529111</v>
+        <v>6.057610103292</v>
       </c>
       <c r="R2">
-        <v>133.68432892762</v>
+        <v>54.518490929628</v>
       </c>
       <c r="S2">
-        <v>0.01902456744654668</v>
+        <v>0.007331598999828091</v>
       </c>
       <c r="T2">
-        <v>0.02145620367155242</v>
+        <v>0.008330597698911224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H3">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I3">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J3">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P3">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q3">
-        <v>1.24615644888</v>
+        <v>0.4036983239520001</v>
       </c>
       <c r="R3">
-        <v>11.21540803992</v>
+        <v>3.633284915568</v>
       </c>
       <c r="S3">
-        <v>0.001596060573498655</v>
+        <v>0.0004886009792063517</v>
       </c>
       <c r="T3">
-        <v>0.001800061990021123</v>
+        <v>0.0005551774167078211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H4">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I4">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J4">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N4">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O4">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P4">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q4">
-        <v>38.05648476149334</v>
+        <v>17.94530330637</v>
       </c>
       <c r="R4">
-        <v>342.5083628534401</v>
+        <v>161.50772975733</v>
       </c>
       <c r="S4">
-        <v>0.04874223854345348</v>
+        <v>0.02171941830675</v>
       </c>
       <c r="T4">
-        <v>0.05497225629619071</v>
+        <v>0.02467889149040263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H5">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I5">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J5">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N5">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O5">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P5">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q5">
-        <v>7.017538623951667</v>
+        <v>1.004018848899</v>
       </c>
       <c r="R5">
-        <v>42.10523174371001</v>
+        <v>6.024113093394</v>
       </c>
       <c r="S5">
-        <v>0.008987969954141618</v>
+        <v>0.001215176193726318</v>
       </c>
       <c r="T5">
-        <v>0.006757848396875966</v>
+        <v>0.0009205035175787737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H6">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I6">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J6">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N6">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O6">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P6">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q6">
-        <v>31.33101591601</v>
+        <v>11.765381906476</v>
       </c>
       <c r="R6">
-        <v>281.97914324409</v>
+        <v>105.888437158284</v>
       </c>
       <c r="S6">
-        <v>0.04012834766946489</v>
+        <v>0.01423978446074593</v>
       </c>
       <c r="T6">
-        <v>0.04525737591764237</v>
+        <v>0.01618008781774117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J7">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N7">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O7">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P7">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q7">
-        <v>54.08788115049622</v>
+        <v>68.08930752134732</v>
       </c>
       <c r="R7">
-        <v>486.790930354466</v>
+        <v>612.803767692126</v>
       </c>
       <c r="S7">
-        <v>0.06927503740479464</v>
+        <v>0.08240931496254701</v>
       </c>
       <c r="T7">
-        <v>0.07812946686372582</v>
+        <v>0.09363835223556852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J8">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P8">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q8">
         <v>4.537687116984</v>
@@ -948,10 +948,10 @@
         <v>40.83918405285601</v>
       </c>
       <c r="S8">
-        <v>0.005811809190411177</v>
+        <v>0.005492017769571037</v>
       </c>
       <c r="T8">
-        <v>0.0065546489842689</v>
+        <v>0.006240356379916689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J9">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N9">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O9">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P9">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q9">
-        <v>138.5768382253547</v>
+        <v>201.7104525639983</v>
       </c>
       <c r="R9">
-        <v>1247.191544028192</v>
+        <v>1815.394073075985</v>
       </c>
       <c r="S9">
-        <v>0.1774873677300917</v>
+        <v>0.2441326079189873</v>
       </c>
       <c r="T9">
-        <v>0.2001730195361593</v>
+        <v>0.2773979512254828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J10">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N10">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O10">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P10">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q10">
-        <v>25.55328798038384</v>
+        <v>11.28546522377883</v>
       </c>
       <c r="R10">
-        <v>153.319727882303</v>
+        <v>67.712791342673</v>
       </c>
       <c r="S10">
-        <v>0.03272831072326705</v>
+        <v>0.013658935477258</v>
       </c>
       <c r="T10">
-        <v>0.02460766594483031</v>
+        <v>0.01034672849757062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.245687</v>
       </c>
       <c r="I11">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J11">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N11">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O11">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P11">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q11">
-        <v>114.087077438693</v>
+        <v>132.2463303309642</v>
       </c>
       <c r="R11">
-        <v>1026.783696948237</v>
+        <v>1190.216972978678</v>
       </c>
       <c r="S11">
-        <v>0.1461212084640267</v>
+        <v>0.1600593380314321</v>
       </c>
       <c r="T11">
-        <v>0.1647977762620104</v>
+        <v>0.1818689146972123</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H12">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I12">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J12">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N12">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O12">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P12">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q12">
-        <v>4.975402441418444</v>
+        <v>8.333766646434666</v>
       </c>
       <c r="R12">
-        <v>44.778621972766</v>
+        <v>75.00389981791201</v>
       </c>
       <c r="S12">
-        <v>0.006372429144971362</v>
+        <v>0.01008645887865851</v>
       </c>
       <c r="T12">
-        <v>0.007186924906503508</v>
+        <v>0.01146083291335022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H13">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I13">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J13">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.595096</v>
       </c>
       <c r="N13">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O13">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P13">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q13">
-        <v>0.4174099461840001</v>
+        <v>0.5553886054080002</v>
       </c>
       <c r="R13">
-        <v>3.756689515656001</v>
+        <v>4.998497448672</v>
       </c>
       <c r="S13">
-        <v>0.0005346130966856082</v>
+        <v>0.0006721935671812801</v>
       </c>
       <c r="T13">
-        <v>0.0006029449825965908</v>
+        <v>0.0007637862059988007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H14">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I14">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J14">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N14">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O14">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P14">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q14">
-        <v>12.74732018642133</v>
+        <v>24.68827930564667</v>
       </c>
       <c r="R14">
-        <v>114.725881677792</v>
+        <v>222.19451375082</v>
       </c>
       <c r="S14">
-        <v>0.0163265978245319</v>
+        <v>0.02988052396544786</v>
       </c>
       <c r="T14">
-        <v>0.01841339148293059</v>
+        <v>0.03395202386200586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H15">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I15">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J15">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N15">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O15">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P15">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q15">
-        <v>2.350579994992167</v>
+        <v>1.381280513712667</v>
       </c>
       <c r="R15">
-        <v>14.103479969953</v>
+        <v>8.287683082276001</v>
       </c>
       <c r="S15">
-        <v>0.00301059153385879</v>
+        <v>0.001671780563644121</v>
       </c>
       <c r="T15">
-        <v>0.002263594702089656</v>
+        <v>0.001266384165028191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H16">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I16">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J16">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N16">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O16">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P16">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q16">
-        <v>10.494571270843</v>
+        <v>16.18624270014844</v>
       </c>
       <c r="R16">
-        <v>94.451141437587</v>
+        <v>145.676184301336</v>
       </c>
       <c r="S16">
-        <v>0.01344130703349362</v>
+        <v>0.01959040591385891</v>
       </c>
       <c r="T16">
-        <v>0.01515931556041024</v>
+        <v>0.02225978131517511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H17">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I17">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J17">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N17">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O17">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P17">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q17">
-        <v>33.97317035845967</v>
+        <v>45.205074076993</v>
       </c>
       <c r="R17">
-        <v>203.839022150758</v>
+        <v>271.230444461958</v>
       </c>
       <c r="S17">
-        <v>0.04351238387011879</v>
+        <v>0.05471224958997013</v>
       </c>
       <c r="T17">
-        <v>0.03271596312417988</v>
+        <v>0.04144486903399462</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H18">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I18">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J18">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.595096</v>
       </c>
       <c r="N18">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O18">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P18">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q18">
-        <v>2.850169283388</v>
+        <v>3.012609317508</v>
       </c>
       <c r="R18">
-        <v>17.101015700328</v>
+        <v>18.075655905048</v>
       </c>
       <c r="S18">
-        <v>0.003650458836930961</v>
+        <v>0.003646197606397804</v>
       </c>
       <c r="T18">
-        <v>0.002744696246747922</v>
+        <v>0.002762017343496772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H19">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I19">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J19">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N19">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O19">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P19">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q19">
-        <v>87.04157812481601</v>
+        <v>133.9172960071675</v>
       </c>
       <c r="R19">
-        <v>522.2494687488961</v>
+        <v>803.5037760430049</v>
       </c>
       <c r="S19">
-        <v>0.1114816933499652</v>
+        <v>0.1620817280617415</v>
       </c>
       <c r="T19">
-        <v>0.0838205274973052</v>
+        <v>0.1227779161461102</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H20">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I20">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J20">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N20">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O20">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P20">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q20">
-        <v>16.05029051444725</v>
+        <v>7.49251696052725</v>
       </c>
       <c r="R20">
-        <v>64.20116205778901</v>
+        <v>29.970067842109</v>
       </c>
       <c r="S20">
-        <v>0.020556998205428</v>
+        <v>0.009068284177640256</v>
       </c>
       <c r="T20">
-        <v>0.0103042235399789</v>
+        <v>0.004579521075224855</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H21">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I21">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J21">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N21">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O21">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P21">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q21">
-        <v>71.65930029203851</v>
+        <v>87.79947067529567</v>
       </c>
       <c r="R21">
-        <v>429.955801752231</v>
+        <v>526.7968240517739</v>
       </c>
       <c r="S21">
-        <v>0.09178027688531178</v>
+        <v>0.1062647645543595</v>
       </c>
       <c r="T21">
-        <v>0.06900748446855162</v>
+        <v>0.08049621945523271</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H22">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I22">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J22">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>30.93277266666666</v>
+        <v>38.940166</v>
       </c>
       <c r="N22">
-        <v>92.79831799999999</v>
+        <v>116.820498</v>
       </c>
       <c r="O22">
-        <v>0.1605730793731885</v>
+        <v>0.1629440517615001</v>
       </c>
       <c r="P22">
-        <v>0.1647388399493432</v>
+        <v>0.1644242630434466</v>
       </c>
       <c r="Q22">
-        <v>17.48039853981156</v>
+        <v>6.944018082005333</v>
       </c>
       <c r="R22">
-        <v>157.323586858304</v>
+        <v>62.496162738048</v>
       </c>
       <c r="S22">
-        <v>0.02238866150675702</v>
+        <v>0.008404429330496378</v>
       </c>
       <c r="T22">
-        <v>0.02525028138338154</v>
+        <v>0.009549611161622014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H23">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I23">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J23">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.595096</v>
       </c>
       <c r="N23">
-        <v>7.785288000000001</v>
+        <v>7.785288</v>
       </c>
       <c r="O23">
-        <v>0.01347123196744937</v>
+        <v>0.01085910771284493</v>
       </c>
       <c r="P23">
-        <v>0.01382071724394339</v>
+        <v>0.01095775368104481</v>
       </c>
       <c r="Q23">
-        <v>1.466512970496</v>
+        <v>0.4627713592320001</v>
       </c>
       <c r="R23">
-        <v>13.198616734464</v>
+        <v>4.164942233088</v>
       </c>
       <c r="S23">
-        <v>0.001878290269922967</v>
+        <v>0.0005600977904884595</v>
       </c>
       <c r="T23">
-        <v>0.002118365040308853</v>
+        <v>0.0006364163349247316</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H24">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I24">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J24">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.25187200000001</v>
+        <v>115.357885</v>
       </c>
       <c r="N24">
-        <v>237.755616</v>
+        <v>346.073655</v>
       </c>
       <c r="O24">
-        <v>0.411399174275867</v>
+        <v>0.4827118914833898</v>
       </c>
       <c r="P24">
-        <v>0.4220721368169787</v>
+        <v>0.487096927819354</v>
       </c>
       <c r="Q24">
-        <v>44.78597255133867</v>
+        <v>20.57123329525333</v>
       </c>
       <c r="R24">
-        <v>403.073752962048</v>
+        <v>185.14109965728</v>
       </c>
       <c r="S24">
-        <v>0.05736127682782464</v>
+        <v>0.02489761323046307</v>
       </c>
       <c r="T24">
-        <v>0.06469294200439292</v>
+        <v>0.02829014509535241</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H25">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I25">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J25">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.6138845</v>
+        <v>6.4541395</v>
       </c>
       <c r="N25">
-        <v>29.227769</v>
+        <v>12.908279</v>
       </c>
       <c r="O25">
-        <v>0.07586117355389273</v>
+        <v>0.02700716891561127</v>
       </c>
       <c r="P25">
-        <v>0.05188616413680444</v>
+        <v>0.01816833773242602</v>
       </c>
       <c r="Q25">
-        <v>8.258442527205334</v>
+        <v>1.150936577717333</v>
       </c>
       <c r="R25">
-        <v>49.550655163232</v>
+        <v>6.905619466304</v>
       </c>
       <c r="S25">
-        <v>0.01057730313719726</v>
+        <v>0.00139299250334257</v>
       </c>
       <c r="T25">
-        <v>0.007952831553029617</v>
+        <v>0.00105520047702357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H26">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I26">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J26">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>65.246217</v>
+        <v>75.63146466666666</v>
       </c>
       <c r="N26">
-        <v>195.738651</v>
+        <v>226.894394</v>
       </c>
       <c r="O26">
-        <v>0.3386953408296026</v>
+        <v>0.3164777801266539</v>
       </c>
       <c r="P26">
-        <v>0.3474821418529304</v>
+        <v>0.3193527177237286</v>
       </c>
       <c r="Q26">
-        <v>36.871246191392</v>
+        <v>13.48700614717155</v>
       </c>
       <c r="R26">
-        <v>331.841215722528</v>
+        <v>121.383055324544</v>
       </c>
       <c r="S26">
-        <v>0.04722420077730553</v>
+        <v>0.01632348716625743</v>
       </c>
       <c r="T26">
-        <v>0.05326018964431573</v>
+        <v>0.01854771443836734</v>
       </c>
     </row>
   </sheetData>
